--- a/excel/BomPlan.xlsx
+++ b/excel/BomPlan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Quantity</t>
   </si>
@@ -40,15 +40,37 @@
   </si>
   <si>
     <t>SAID</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>BS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -90,9 +112,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +442,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -421,38 +458,55 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
       </c>
-      <c r="D3" s="1">
-        <v>84.625</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45.625</v>
+      <c r="D3" s="3">
+        <v>88.25</v>
+      </c>
+      <c r="E3" s="8">
+        <v>46.875</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>300</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>40</v>
       </c>
-      <c r="D4" s="1">
-        <v>69.125</v>
-      </c>
-      <c r="E4" s="1">
-        <v>30.125</v>
+      <c r="D4" s="4">
+        <v>116.125</v>
+      </c>
+      <c r="E4" s="8">
+        <v>45.625</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>400</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -461,11 +515,16 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>400</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -474,11 +533,16 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="5">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>500</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -487,9 +551,56 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>12.5</v>
-      </c>
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>300</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>500</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/BomPlan.xlsx
+++ b/excel/BomPlan.xlsx
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -466,7 +466,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -476,7 +476,7 @@
       <c r="D3" s="3">
         <v>88.25</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>46.875</v>
       </c>
       <c r="F3" s="1"/>
@@ -485,8 +485,11 @@
         <v>300</v>
       </c>
       <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -506,7 +509,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -524,7 +527,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,7 +545,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -552,7 +555,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -562,7 +565,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -582,7 +585,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
@@ -592,7 +595,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>

--- a/excel/BomPlan.xlsx
+++ b/excel/BomPlan.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E4" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>

--- a/excel/BomPlan.xlsx
+++ b/excel/BomPlan.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOMPlanTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="FAB01-B3-02" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Quantity</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>BS</t>
+  </si>
+  <si>
+    <t>Project No:</t>
+  </si>
+  <si>
+    <t>S32A1305700</t>
+  </si>
+  <si>
+    <t>Color Code</t>
   </si>
 </sst>
 </file>
@@ -431,171 +440,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="D3:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3">
-        <v>88.25</v>
-      </c>
-      <c r="E3">
-        <v>46.875</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>300</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="L3">
-        <v>46.875</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>40</v>
-      </c>
-      <c r="D4" s="4">
-        <v>116.125</v>
-      </c>
-      <c r="E4" s="8">
-        <v>45.625</v>
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>88.25</v>
+      </c>
+      <c r="E4">
+        <v>46.875</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <v>400</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="5">
-        <v>11</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D5" s="4">
+        <v>116.125</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45.625</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
         <v>400</v>
       </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="5">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>500</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>300</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
-        <v>40</v>
+      <c r="C8" s="1">
+        <v>30</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>300</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5">
         <v>17</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <v>500</v>
       </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
@@ -612,12 +623,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>88.25</v>
+      </c>
+      <c r="E4">
+        <v>46.875</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>300</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>116.125</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45.625</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>400</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>400</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>500</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>300</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2">
+        <v>500</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/excel/BomPlan.xlsx
+++ b/excel/BomPlan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="FAB01-B3-02" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Quantity</t>
   </si>
@@ -61,28 +61,91 @@
   </si>
   <si>
     <t>Color Code</t>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAL5011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAL5013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAL5013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAL5012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAL5010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA-Test1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA-Test2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA-Test3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color Code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S32A1305700</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBL5010</t>
+  </si>
+  <si>
+    <t>RBL5011</t>
+  </si>
+  <si>
+    <t>RBL5012</t>
+  </si>
+  <si>
+    <t>RBL5013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -131,7 +194,7 @@
     <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -141,7 +204,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -154,7 +217,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -228,7 +291,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -263,7 +325,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,21 +500,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -461,10 +522,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -490,7 +551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -508,9 +569,11 @@
       <c r="H4" s="1">
         <v>300</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -528,9 +591,11 @@
       <c r="H5" s="1">
         <v>400</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -546,9 +611,11 @@
       <c r="H6" s="1">
         <v>400</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -564,9 +631,11 @@
       <c r="H7" s="1">
         <v>500</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -584,9 +653,11 @@
       <c r="H8" s="1">
         <v>300</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -604,9 +675,11 @@
       <c r="H9" s="2">
         <v>500</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
@@ -617,34 +690,35 @@
       <c r="I10" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I4" sqref="I4:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -667,12 +741,12 @@
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -688,11 +762,13 @@
       <c r="H4" s="1">
         <v>300</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>11</v>
@@ -708,11 +784,13 @@
       <c r="H5" s="1">
         <v>400</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
@@ -726,9 +804,11 @@
       <c r="H6" s="1">
         <v>400</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -744,11 +824,13 @@
       <c r="H7" s="1">
         <v>500</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>14</v>
@@ -759,14 +841,16 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1">
         <v>300</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -784,21 +868,26 @@
       <c r="H9" s="2">
         <v>500</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/BomPlan.xlsx
+++ b/excel/BomPlan.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BOMPlanTest" sheetId="1" r:id="rId1"/>
-    <sheet name="FAB01-B3-02" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SAB01-B2-00" sheetId="1" r:id="rId1"/>
+    <sheet name="SAB01-B2-01" sheetId="4" r:id="rId2"/>
+    <sheet name="SAB01-B3-02" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>Quantity</t>
   </si>
@@ -122,11 +123,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -291,6 +292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -325,6 +327,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,21 +503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -522,10 +525,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -551,7 +554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -573,7 +576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -595,7 +598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25">
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -615,7 +618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -635,7 +638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25">
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -657,7 +660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -679,7 +682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
@@ -696,21 +699,203 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>88.25</v>
+      </c>
+      <c r="E4">
+        <v>46.875</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>300</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4">
+        <v>116.125</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45.625</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>400</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>400</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>500</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>300</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2">
+        <v>500</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -718,7 +903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -744,7 +929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
@@ -766,7 +951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -788,7 +973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25">
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -808,7 +993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,7 +1013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25">
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -850,7 +1035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -879,13 +1064,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/BomPlan.xlsx
+++ b/excel/BomPlan.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SAB01-B2-00" sheetId="1" r:id="rId1"/>
     <sheet name="SAB01-B2-01" sheetId="4" r:id="rId2"/>
-    <sheet name="SAB01-B3-02" sheetId="2" r:id="rId3"/>
+    <sheet name="SAB-BCV01-B03 02" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -125,26 +125,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -195,7 +195,7 @@
     <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -205,7 +205,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -510,14 +510,14 @@
       <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -525,10 +525,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -576,7 +576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -598,7 +598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -618,7 +618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -638,7 +638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -660,7 +660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
@@ -702,13 +702,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -716,10 +716,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,7 +767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,7 +789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,7 +809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,7 +829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,7 +851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -884,18 +884,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -903,7 +903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -929,7 +929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
@@ -951,7 +951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -973,7 +973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -993,7 +993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1070,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/BomPlan.xlsx
+++ b/excel/BomPlan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>Quantity</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>RBL5013</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -882,20 +891,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -903,7 +912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,10 +935,16 @@
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
@@ -947,11 +962,15 @@
       <c r="H4" s="1">
         <v>300</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -969,11 +988,17 @@
       <c r="H5" s="1">
         <v>400</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -989,11 +1014,15 @@
       <c r="H6" s="1">
         <v>400</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1009,11 +1038,15 @@
       <c r="H7" s="1">
         <v>500</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1031,11 +1064,17 @@
       <c r="H8" s="1">
         <v>300</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="1">
+        <v>1500</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1053,7 +1092,11 @@
       <c r="H9" s="2">
         <v>500</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
